--- a/StructureDefinition-Patient-SaudeiD.xlsx
+++ b/StructureDefinition-Patient-SaudeiD.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="434">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -497,6 +497,19 @@
     <t>The registered place of birth of the patient. A sytem may use the address.text if they don't store the birthPlace address in discrete elements.</t>
   </si>
   <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-occupation}
+</t>
+  </si>
+  <si>
+    <t>The patient's occupation.</t>
+  </si>
+  <si>
+    <t>Information about a person's work and volunteer positions to support patient care, population health and public health activities.</t>
+  </si>
+  <si>
     <t>prontmedCode</t>
   </si>
   <si>
@@ -510,19 +523,6 @@
     <t>Numerical identification for Prontmed patients.</t>
   </si>
   <si>
-    <t>occupation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-occupation}
-</t>
-  </si>
-  <si>
-    <t>The patient's occupation.</t>
-  </si>
-  <si>
-    <t>Information about a person's work and volunteer positions to support patient care, population health and public health activities.</t>
-  </si>
-  <si>
     <t>mothersName</t>
   </si>
   <si>
@@ -569,19 +569,6 @@
     <t>Identification number used for associating patient with his/her insurance coverage.</t>
   </si>
   <si>
-    <t>B2CpatientCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-B2CpatientCode}
-</t>
-  </si>
-  <si>
-    <t>B2C system identification code for the patient.</t>
-  </si>
-  <si>
-    <t>Identification code for patients originated from B2C.</t>
-  </si>
-  <si>
     <t>flagUserTerms</t>
   </si>
   <si>
@@ -592,19 +579,6 @@
     <t>Indicates whether user agrees with User Terms or not.</t>
   </si>
   <si>
-    <t>idStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-idStatus}
-</t>
-  </si>
-  <si>
-    <t>Status id.</t>
-  </si>
-  <si>
-    <t>Patient's status id.</t>
-  </si>
-  <si>
     <t>biologicalSex</t>
   </si>
   <si>
@@ -665,30 +639,6 @@
     <t>Operational system installed in patient's device.</t>
   </si>
   <si>
-    <t>optinAssinaturaEstaAtivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-optinAssinaturaEstaAtivo}
-</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxxxxxxxx</t>
-  </si>
-  <si>
-    <t>optinVisitaEstaAtivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-optinVisitaEstaAtivo}
-</t>
-  </si>
-  <si>
-    <t>optinNoticiaEstaAtivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-optinNoticiaEstaAtivo}
-</t>
-  </si>
-  <si>
     <t>idDocumentoFleury</t>
   </si>
   <si>
@@ -717,13 +667,6 @@
   </si>
   <si>
     <t>Workstation's id.</t>
-  </si>
-  <si>
-    <t>isB2b2c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-isB2B2C}
-</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1752,7 +1695,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN71"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3888,7 +3831,7 @@
         <v>176</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3974,7 +3917,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>80</v>
@@ -3996,13 +3939,13 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4088,7 +4031,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>80</v>
@@ -4110,13 +4053,13 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4202,7 +4145,7 @@
         <v>131</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>80</v>
@@ -4224,13 +4167,13 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4316,7 +4259,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>80</v>
@@ -4338,13 +4281,13 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4430,7 +4373,7 @@
         <v>131</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>80</v>
@@ -4452,13 +4395,13 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4544,7 +4487,7 @@
         <v>131</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>80</v>
@@ -4566,13 +4509,13 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4658,7 +4601,7 @@
         <v>131</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>80</v>
@@ -4680,13 +4623,13 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4772,7 +4715,7 @@
         <v>131</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>80</v>
@@ -4794,13 +4737,13 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4886,7 +4829,7 @@
         <v>131</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>80</v>
@@ -4908,13 +4851,13 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4997,41 +4940,43 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="M29" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5079,7 +5024,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5088,13 +5033,13 @@
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5111,11 +5056,9 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5124,7 +5067,7 @@
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
@@ -5133,19 +5076,21 @@
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5193,7 +5138,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5202,22 +5147,22 @@
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5225,11 +5170,9 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5244,26 +5187,32 @@
         <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="Q31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5307,28 +5256,28 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5339,11 +5288,9 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5352,7 +5299,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5361,19 +5308,23 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5421,7 +5372,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5430,22 +5381,22 @@
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5453,11 +5404,9 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5466,7 +5415,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>80</v>
@@ -5475,19 +5424,23 @@
         <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5535,7 +5488,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5544,22 +5497,22 @@
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5567,11 +5520,9 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5589,19 +5540,23 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5625,13 +5580,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -5649,31 +5604,31 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5681,42 +5636,42 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I35" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5765,39 +5720,39 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>130</v>
+        <v>265</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5808,29 +5763,31 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="N36" t="s" s="2">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -5879,13 +5836,13 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>80</v>
@@ -5894,16 +5851,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -5911,7 +5868,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5922,38 +5879,36 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P37" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>80</v>
       </c>
@@ -5997,13 +5952,13 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>80</v>
@@ -6012,16 +5967,16 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6029,7 +5984,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6040,7 +5995,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
@@ -6049,22 +6004,20 @@
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6089,13 +6042,13 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
@@ -6113,13 +6066,13 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>80</v>
@@ -6128,16 +6081,16 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6145,7 +6098,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6156,7 +6109,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
@@ -6165,22 +6118,22 @@
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6229,13 +6182,13 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
@@ -6244,16 +6197,16 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6261,7 +6214,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6272,7 +6225,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>80</v>
@@ -6281,22 +6234,22 @@
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6321,13 +6274,13 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -6345,13 +6298,13 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6360,16 +6313,16 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6377,7 +6330,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6388,7 +6341,7 @@
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>80</v>
@@ -6397,22 +6350,22 @@
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -6461,39 +6414,39 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6510,26 +6463,22 @@
         <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>287</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6577,7 +6526,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6589,19 +6538,19 @@
         <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6609,11 +6558,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6629,23 +6578,21 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>295</v>
+        <v>132</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6693,7 +6640,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6705,19 +6652,19 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6725,40 +6672,42 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>304</v>
+        <v>132</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>307</v>
+        <v>209</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6783,13 +6732,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -6807,31 +6756,31 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>311</v>
+        <v>130</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -6839,7 +6788,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6850,7 +6799,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
@@ -6862,19 +6811,17 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -6899,13 +6846,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -6923,13 +6870,13 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>80</v>
@@ -6938,16 +6885,16 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -6955,7 +6902,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6966,7 +6913,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>80</v>
@@ -6978,19 +6925,17 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
@@ -7039,13 +6984,13 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
@@ -7054,16 +6999,16 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>328</v>
+        <v>236</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7071,7 +7016,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7094,19 +7039,19 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>331</v>
+        <v>240</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7155,7 +7100,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7167,19 +7112,19 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>336</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>337</v>
+        <v>245</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7187,7 +7132,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7210,16 +7155,18 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7267,7 +7214,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7279,19 +7226,19 @@
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7299,18 +7246,18 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>80</v>
@@ -7322,18 +7269,18 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>343</v>
+        <v>249</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7357,13 +7304,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7381,31 +7328,31 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7413,42 +7360,40 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>226</v>
+        <v>365</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7497,31 +7442,31 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>130</v>
+        <v>367</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7529,7 +7474,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7540,7 +7485,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -7552,18 +7497,16 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>354</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7587,13 +7530,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -7611,13 +7554,13 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>80</v>
@@ -7626,16 +7569,16 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -7643,7 +7586,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7654,7 +7597,7 @@
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>80</v>
@@ -7666,17 +7609,19 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -7725,13 +7670,13 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>80</v>
@@ -7740,16 +7685,16 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>253</v>
+        <v>379</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>245</v>
+        <v>380</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -7757,7 +7702,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7768,7 +7713,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -7780,20 +7725,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>80</v>
       </c>
@@ -7841,31 +7782,31 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -7873,18 +7814,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>80</v>
@@ -7896,18 +7837,18 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>295</v>
+        <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>80</v>
       </c>
@@ -7955,31 +7896,31 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -7987,40 +7928,42 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>266</v>
+        <v>331</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>376</v>
+        <v>209</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8045,13 +7988,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8069,31 +8012,31 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>273</v>
+        <v>130</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8101,7 +8044,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8109,7 +8052,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
@@ -8124,17 +8067,19 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>379</v>
+        <v>287</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="N56" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8159,13 +8104,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8183,31 +8128,31 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>245</v>
+        <v>390</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8215,7 +8160,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8238,16 +8183,20 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>387</v>
+        <v>221</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8295,7 +8244,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8310,16 +8259,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>245</v>
+        <v>398</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8327,11 +8276,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8350,20 +8299,18 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8411,7 +8358,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8426,16 +8373,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>397</v>
+        <v>228</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8443,7 +8390,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8463,19 +8410,23 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>362</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>339</v>
+        <v>409</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8523,7 +8474,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>341</v>
+        <v>408</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8535,13 +8486,13 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -8555,11 +8506,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8572,24 +8523,26 @@
         <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>132</v>
+        <v>314</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>343</v>
+        <v>415</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8637,7 +8590,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8649,13 +8602,13 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>245</v>
+        <v>419</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -8669,43 +8622,39 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8753,22 +8702,22 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -8785,18 +8734,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -8808,20 +8757,18 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>304</v>
+        <v>132</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>402</v>
+        <v>326</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>403</v>
+        <v>327</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8845,13 +8792,13 @@
         <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>80</v>
@@ -8869,31 +8816,31 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>401</v>
+        <v>328</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>406</v>
+        <v>228</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -8901,42 +8848,42 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>410</v>
+        <v>331</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>411</v>
+        <v>332</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>412</v>
+        <v>208</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>413</v>
+        <v>209</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -8985,31 +8932,31 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>409</v>
+        <v>333</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>414</v>
+        <v>130</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9017,18 +8964,18 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -9037,19 +8984,19 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9099,13 +9046,13 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -9114,16 +9061,16 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>423</v>
+        <v>216</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9131,7 +9078,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9139,7 +9086,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>87</v>
@@ -9154,20 +9101,16 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>379</v>
+        <v>107</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9191,13 +9134,13 @@
         <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>80</v>
@@ -9215,10 +9158,10 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>87</v>
@@ -9230,10 +9173,10 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>430</v>
+        <v>228</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
@@ -9242,690 +9185,6 @@
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN71" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/StructureDefinition-Patient-SaudeiD.xlsx
+++ b/StructureDefinition-Patient-SaudeiD.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="426">
   <si>
     <t>Property</t>
   </si>
@@ -543,36 +543,10 @@
     <t>Full name of patient's father.</t>
   </si>
   <si>
-    <t>coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-coverage}
-</t>
-  </si>
-  <si>
-    <t>Associated insurance coverage.</t>
-  </si>
-  <si>
-    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be relevant in delivering the requested service.</t>
-  </si>
-  <si>
-    <t>coverageIdentityCard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-coverageIdentityCard}
-</t>
-  </si>
-  <si>
-    <t>Insurance card number.</t>
-  </si>
-  <si>
-    <t>Identification number used for associating patient with his/her insurance coverage.</t>
-  </si>
-  <si>
-    <t>flagUserTerms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-flagUserTerms}
+    <t>agreedWithUserTerms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-agreedWithUserTerms}
 </t>
   </si>
   <si>
@@ -606,7 +580,7 @@
 </t>
   </si>
   <si>
-    <t>Date and time when record was updated.</t>
+    <t>Date and time of the last time some information of the patient was updated.</t>
   </si>
   <si>
     <t>isB2C</t>
@@ -1695,7 +1669,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AN63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3603,7 +3577,7 @@
         <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3689,7 +3663,7 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>80</v>
@@ -3711,13 +3685,13 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="L18" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3803,7 +3777,7 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>80</v>
@@ -3825,13 +3799,13 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3917,7 +3891,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>80</v>
@@ -3939,13 +3913,13 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4031,7 +4005,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>80</v>
@@ -4053,13 +4027,13 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4145,7 +4119,7 @@
         <v>131</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>80</v>
@@ -4167,13 +4141,13 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4259,7 +4233,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>80</v>
@@ -4281,13 +4255,13 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4373,7 +4347,7 @@
         <v>131</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>80</v>
@@ -4395,13 +4369,13 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4487,7 +4461,7 @@
         <v>131</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>80</v>
@@ -4509,13 +4483,13 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4601,7 +4575,7 @@
         <v>131</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>80</v>
@@ -4623,13 +4597,13 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4712,41 +4686,43 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4794,7 +4770,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4803,13 +4779,13 @@
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -4826,11 +4802,9 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4839,7 +4813,7 @@
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>80</v>
@@ -4848,19 +4822,21 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4908,7 +4884,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4917,22 +4893,22 @@
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -4940,18 +4916,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -4960,27 +4936,29 @@
         <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="Q29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5024,28 +5002,28 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5056,7 +5034,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5079,17 +5057,19 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
@@ -5138,7 +5118,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5153,16 +5133,16 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5170,7 +5150,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5181,38 +5161,36 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P31" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5256,13 +5234,13 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>80</v>
@@ -5271,16 +5249,16 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5288,7 +5266,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5299,7 +5277,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5311,19 +5289,19 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>231</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
@@ -5348,13 +5326,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -5372,13 +5350,13 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
@@ -5387,16 +5365,16 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5404,7 +5382,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5415,7 +5393,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>80</v>
@@ -5427,19 +5405,19 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -5488,13 +5466,13 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
@@ -5503,24 +5481,24 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5537,25 +5515,25 @@
         <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5580,13 +5558,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -5604,7 +5582,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5619,16 +5597,16 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5636,7 +5614,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5647,7 +5625,7 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
@@ -5659,19 +5637,19 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5720,13 +5698,13 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>80</v>
@@ -5735,24 +5713,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5769,25 +5747,23 @@
         <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -5812,13 +5788,13 @@
         <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>80</v>
@@ -5836,7 +5812,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5851,16 +5827,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -5868,7 +5844,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5879,7 +5855,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>80</v>
@@ -5888,22 +5864,22 @@
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -5952,13 +5928,13 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>80</v>
@@ -5967,16 +5943,16 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -5984,7 +5960,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5995,7 +5971,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
@@ -6007,17 +5983,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="N38" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6042,13 +6020,13 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
@@ -6066,13 +6044,13 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>80</v>
@@ -6081,16 +6059,16 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>295</v>
+        <v>220</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6098,7 +6076,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6109,7 +6087,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
@@ -6121,19 +6099,19 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6182,31 +6160,31 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>311</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6214,7 +6192,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6225,7 +6203,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>80</v>
@@ -6237,20 +6215,16 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>306</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6298,31 +6272,31 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>311</v>
+        <v>220</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6330,11 +6304,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6353,20 +6327,18 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6414,7 +6386,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6426,13 +6398,13 @@
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>319</v>
+        <v>138</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -6450,35 +6422,39 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6526,22 +6502,22 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -6558,11 +6534,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6581,18 +6557,18 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>132</v>
+        <v>279</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6616,13 +6592,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6640,7 +6616,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6652,19 +6628,19 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6672,42 +6648,40 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>209</v>
+        <v>337</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6756,31 +6730,31 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -6788,7 +6762,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6811,17 +6785,19 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -6846,31 +6822,31 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6885,16 +6861,16 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>340</v>
+        <v>237</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -6902,7 +6878,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6925,17 +6901,17 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
@@ -6984,7 +6960,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6999,16 +6975,16 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7016,7 +6992,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7027,7 +7003,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -7039,19 +7015,17 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M47" t="s" s="2">
         <v>350</v>
       </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>244</v>
+        <v>351</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7076,13 +7050,13 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7100,13 +7074,13 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
@@ -7115,16 +7089,16 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7132,7 +7106,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7155,17 +7129,17 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7214,7 +7188,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7223,22 +7197,22 @@
         <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>283</v>
+        <v>359</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7246,7 +7220,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7269,18 +7243,16 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>107</v>
+        <v>362</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>249</v>
+        <v>363</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>359</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7304,13 +7276,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7328,7 +7300,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7343,16 +7315,16 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>256</v>
+        <v>365</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7360,7 +7332,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7371,7 +7343,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
@@ -7383,17 +7355,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N50" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7442,31 +7416,31 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>228</v>
+        <v>372</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7474,7 +7448,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7497,13 +7471,13 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>370</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7554,7 +7528,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7566,13 +7540,13 @@
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>373</v>
+        <v>220</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7590,7 +7564,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7609,20 +7583,18 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7670,7 +7642,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7682,13 +7654,13 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>379</v>
+        <v>220</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -7702,39 +7674,43 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
       </c>
@@ -7782,22 +7758,22 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -7814,18 +7790,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>80</v>
@@ -7837,18 +7813,20 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>132</v>
+        <v>279</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
       </c>
@@ -7872,13 +7850,13 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -7896,31 +7874,31 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>228</v>
+        <v>381</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -7928,42 +7906,42 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>208</v>
+        <v>387</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>209</v>
+        <v>388</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8012,31 +7990,31 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>130</v>
+        <v>389</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8044,18 +8022,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8067,20 +8045,18 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>287</v>
+        <v>394</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8104,13 +8080,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8128,13 +8104,13 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
@@ -8143,16 +8119,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>390</v>
+        <v>220</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8160,7 +8136,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8180,22 +8156,22 @@
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>221</v>
+        <v>354</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8244,7 +8220,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8259,16 +8235,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8276,11 +8252,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8293,24 +8269,26 @@
         <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>402</v>
+        <v>306</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8358,7 +8336,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8373,16 +8351,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8390,7 +8368,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8410,23 +8388,19 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>362</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>409</v>
+        <v>314</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8474,7 +8448,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8486,13 +8460,13 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>367</v>
+        <v>220</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -8506,11 +8480,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8523,26 +8497,24 @@
         <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>415</v>
+        <v>318</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>416</v>
+        <v>319</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8590,7 +8562,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>414</v>
+        <v>320</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8602,13 +8574,13 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>419</v>
+        <v>220</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -8622,39 +8594,43 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8702,22 +8678,22 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -8734,18 +8710,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -8754,19 +8730,19 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>326</v>
+        <v>417</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>327</v>
+        <v>418</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>208</v>
+        <v>419</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8816,31 +8792,31 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -8848,43 +8824,39 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>331</v>
+        <v>422</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
       </c>
@@ -8908,13 +8880,13 @@
         <v>80</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>80</v>
@@ -8932,25 +8904,25 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>333</v>
+        <v>421</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>130</v>
+        <v>425</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -8959,232 +8931,6 @@
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN65" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/StructureDefinition-Patient-SaudeiD.xlsx
+++ b/StructureDefinition-Patient-SaudeiD.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://saudeid.com.br/fhir/StructureDefinition/Patient-SaudeiD</t>
+    <t>http://saudeid-data.github.io/fhir/StructureDefinition/Patient-SaudeiD</t>
   </si>
   <si>
     <t>Version</t>
@@ -506,7 +506,7 @@
     <t>occupation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-occupation}
+    <t xml:space="preserve">Extension {http://saudeid-data.github.io/fhir/StructureDefinition/patient-occupation}
 </t>
   </si>
   <si>
@@ -519,7 +519,7 @@
     <t>prontmedCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-prontmedCode}
+    <t xml:space="preserve">Extension {http://saudeid-data.github.io/fhir/StructureDefinition/patient-prontmedCode}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>mothersName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-mothersName}
+    <t xml:space="preserve">Extension {http://saudeid-data.github.io/fhir/StructureDefinition/patient-mothersName}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>fathersName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-fathersName}
+    <t xml:space="preserve">Extension {http://saudeid-data.github.io/fhir/StructureDefinition/patient-fathersName}
 </t>
   </si>
   <si>
@@ -552,7 +552,7 @@
     <t>agreedWithUserTerms</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-agreedWithUserTerms}
+    <t xml:space="preserve">Extension {http://saudeid-data.github.io/fhir/StructureDefinition/patient-agreedWithUserTerms}
 </t>
   </si>
   <si>
@@ -562,7 +562,7 @@
     <t>biologicalSex</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-biologicalSex}
+    <t xml:space="preserve">Extension {http://saudeid-data.github.io/fhir/StructureDefinition/patient-biologicalSex}
 </t>
   </si>
   <si>
@@ -572,7 +572,7 @@
     <t>ethnicity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-ethnicity}
+    <t xml:space="preserve">Extension {http://saudeid-data.github.io/fhir/StructureDefinition/patient-ethnicity}
 </t>
   </si>
   <si>
@@ -582,7 +582,7 @@
     <t>lastUpdate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-lastUpdate}
+    <t xml:space="preserve">Extension {http://saudeid-data.github.io/fhir/StructureDefinition/patient-lastUpdate}
 </t>
   </si>
   <si>
@@ -592,7 +592,7 @@
     <t>isB2C</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-isB2C}
+    <t xml:space="preserve">Extension {http://saudeid-data.github.io/fhir/StructureDefinition/patient-isB2C}
 </t>
   </si>
   <si>
@@ -602,7 +602,7 @@
     <t>isB2B</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-isB2B}
+    <t xml:space="preserve">Extension {http://saudeid-data.github.io/fhir/StructureDefinition/patient-isB2B}
 </t>
   </si>
   <si>
@@ -612,7 +612,7 @@
     <t>deviceOperationalSystem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-deviceOperationalSystem}
+    <t xml:space="preserve">Extension {http://saudeid-data.github.io/fhir/StructureDefinition/patient-deviceOperationalSystem}
 </t>
   </si>
   <si>
@@ -622,7 +622,7 @@
     <t>idDocumentoFleury</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-idDocumentoFleury}
+    <t xml:space="preserve">Extension {http://saudeid-data.github.io/fhir/StructureDefinition/patient-idDocumentoFleury}
 </t>
   </si>
   <si>
@@ -632,7 +632,7 @@
     <t>idClienteFleury</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-idClienteFleury}
+    <t xml:space="preserve">Extension {http://saudeid-data.github.io/fhir/StructureDefinition/patient-idClienteFleury}
 </t>
   </si>
   <si>
@@ -642,7 +642,7 @@
     <t>idWorkstation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://saudeid.com.br/fhir/StructureDefinition/patient-idWorkstation}
+    <t xml:space="preserve">Extension {http://saudeid-data.github.io/fhir/StructureDefinition/patient-idWorkstation}
 </t>
   </si>
   <si>

--- a/StructureDefinition-Patient-SaudeiD.xlsx
+++ b/StructureDefinition-Patient-SaudeiD.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$154</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5845" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5594" uniqueCount="764">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.2</t>
+    <t>0.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -1165,122 +1165,6 @@
     <t>PID-13, PID-14, PID-40</t>
   </si>
   <si>
-    <t>Patient.telecom.id</t>
-  </si>
-  <si>
-    <t>Patient.telecom.extension</t>
-  </si>
-  <si>
-    <t>Patient.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>Patient.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>Patient.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>Patient.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Patient.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
     <t>Patient.gender</t>
   </si>
   <si>
@@ -2062,16 +1946,111 @@
     <t>Patient.contact.telecom.system</t>
   </si>
   <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
     <t>Patient.contact.telecom.value</t>
   </si>
   <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
     <t>Patient.contact.telecom.use</t>
   </si>
   <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
     <t>Patient.contact.telecom.rank</t>
   </si>
   <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
     <t>Patient.contact.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
   </si>
   <si>
     <t>Patient.contact.address</t>
@@ -2742,7 +2721,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN161"/>
+  <dimension ref="A1:AN154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10227,7 +10206,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>80</v>
@@ -10343,7 +10322,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>88</v>
@@ -10355,19 +10334,23 @@
         <v>81</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>215</v>
+        <v>365</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>81</v>
       </c>
@@ -10391,13 +10374,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -10415,7 +10398,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>217</v>
+        <v>364</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -10427,19 +10410,19 @@
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>218</v>
+        <v>371</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>81</v>
+        <v>373</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10447,18 +10430,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>81</v>
@@ -10467,21 +10450,23 @@
         <v>81</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>133</v>
+        <v>375</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>220</v>
+        <v>376</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>221</v>
+        <v>377</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>81</v>
       </c>
@@ -10517,51 +10502,51 @@
         <v>81</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>223</v>
+        <v>374</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>218</v>
+        <v>380</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10569,7 +10554,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>88</v>
@@ -10578,22 +10563,26 @@
         <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>108</v>
+        <v>385</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>81</v>
       </c>
@@ -10617,13 +10606,13 @@
         <v>81</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>81</v>
@@ -10641,7 +10630,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10650,22 +10639,22 @@
         <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10673,7 +10662,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10681,10 +10670,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>81</v>
@@ -10696,19 +10685,19 @@
         <v>89</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>90</v>
+        <v>393</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>81</v>
@@ -10745,25 +10734,23 @@
         <v>81</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="AB70" s="2"/>
       <c r="AC70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>81</v>
@@ -10772,16 +10759,16 @@
         <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10789,7 +10776,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10797,7 +10784,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>88</v>
@@ -10806,26 +10793,22 @@
         <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>384</v>
+        <v>215</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10849,13 +10832,13 @@
         <v>81</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>81</v>
@@ -10873,7 +10856,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -10885,10 +10868,10 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
@@ -10897,7 +10880,7 @@
         <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10905,18 +10888,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>81</v>
@@ -10925,19 +10908,19 @@
         <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>393</v>
+        <v>133</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>394</v>
+        <v>220</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>395</v>
+        <v>221</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>396</v>
+        <v>201</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10975,31 +10958,31 @@
         <v>81</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>397</v>
+        <v>223</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>218</v>
@@ -11011,7 +10994,7 @@
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -11019,7 +11002,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11027,7 +11010,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>88</v>
@@ -11036,22 +11019,26 @@
         <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>263</v>
+        <v>108</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>81</v>
       </c>
@@ -11063,7 +11050,7 @@
         <v>81</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>81</v>
+        <v>409</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>81</v>
@@ -11075,13 +11062,13 @@
         <v>81</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>81</v>
+        <v>410</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>81</v>
@@ -11099,7 +11086,7 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -11114,7 +11101,7 @@
         <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
@@ -11123,7 +11110,7 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>131</v>
+        <v>413</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -11131,7 +11118,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11157,17 +11144,15 @@
         <v>108</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>81</v>
       </c>
@@ -11179,7 +11164,7 @@
         <v>81</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>81</v>
@@ -11194,10 +11179,10 @@
         <v>229</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>81</v>
@@ -11215,7 +11200,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -11230,16 +11215,16 @@
         <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>409</v>
+        <v>310</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>410</v>
+        <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -11247,7 +11232,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11270,19 +11255,19 @@
         <v>89</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>413</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>417</v>
+        <v>316</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>81</v>
@@ -11295,7 +11280,7 @@
         <v>81</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>81</v>
@@ -11331,7 +11316,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -11346,24 +11331,24 @@
         <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>421</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11374,32 +11359,28 @@
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>423</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11411,7 +11392,7 @@
         <v>81</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>81</v>
@@ -11435,25 +11416,23 @@
         <v>81</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="AB76" s="2"/>
       <c r="AC76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>81</v>
@@ -11462,16 +11441,16 @@
         <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11481,16 +11460,18 @@
       <c r="A77" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="B77" s="2"/>
+      <c r="B77" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="C77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>81</v>
@@ -11502,20 +11483,16 @@
         <v>89</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>435</v>
-      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11527,7 +11504,7 @@
         <v>81</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>81</v>
@@ -11551,17 +11528,19 @@
         <v>81</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AB77" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -11576,16 +11555,16 @@
         <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
@@ -11593,9 +11572,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>81</v>
       </c>
@@ -11613,16 +11594,16 @@
         <v>81</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>215</v>
+        <v>431</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>216</v>
+        <v>432</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11637,7 +11618,7 @@
         <v>81</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>81</v>
@@ -11673,22 +11654,22 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>217</v>
+        <v>435</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>218</v>
+        <v>436</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>81</v>
@@ -11697,7 +11678,7 @@
         <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -11705,18 +11686,20 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="C79" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>81</v>
@@ -11725,20 +11708,18 @@
         <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>220</v>
+        <v>431</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11751,7 +11732,7 @@
         <v>81</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>81</v>
@@ -11775,19 +11756,19 @@
         <v>81</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>223</v>
+        <v>435</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11799,10 +11780,10 @@
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>218</v>
+        <v>436</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>81</v>
@@ -11811,7 +11792,7 @@
         <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
@@ -11819,15 +11800,17 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="C80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>88</v>
@@ -11836,26 +11819,22 @@
         <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11867,7 +11846,7 @@
         <v>81</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>81</v>
@@ -11879,13 +11858,13 @@
         <v>81</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>81</v>
@@ -11903,13 +11882,13 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>81</v>
@@ -11918,7 +11897,7 @@
         <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>81</v>
@@ -11927,7 +11906,7 @@
         <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
@@ -11935,15 +11914,17 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="C81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>88</v>
@@ -11958,17 +11939,15 @@
         <v>89</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>81</v>
@@ -11981,7 +11960,7 @@
         <v>81</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>81</v>
@@ -11993,13 +11972,13 @@
         <v>81</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>457</v>
+        <v>81</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>458</v>
+        <v>81</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>81</v>
@@ -12017,13 +11996,13 @@
         <v>81</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>81</v>
@@ -12032,7 +12011,7 @@
         <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>310</v>
+        <v>436</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>81</v>
@@ -12041,7 +12020,7 @@
         <v>81</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
@@ -12049,11 +12028,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -12075,17 +12054,13 @@
         <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>81</v>
       </c>
@@ -12097,7 +12072,7 @@
         <v>81</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>81</v>
@@ -12133,7 +12108,7 @@
         <v>81</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>79</v>
@@ -12148,7 +12123,7 @@
         <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>318</v>
+        <v>449</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>81</v>
@@ -12157,7 +12132,7 @@
         <v>81</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>81</v>
@@ -12165,18 +12140,18 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>81</v>
@@ -12191,12 +12166,14 @@
         <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>81</v>
@@ -12209,7 +12186,7 @@
         <v>81</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>81</v>
@@ -12233,23 +12210,25 @@
         <v>81</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AB83" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>81</v>
@@ -12258,7 +12237,7 @@
         <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>81</v>
@@ -12267,7 +12246,7 @@
         <v>81</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
@@ -12275,17 +12254,15 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>88</v>
@@ -12303,10 +12280,10 @@
         <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12321,7 +12298,7 @@
         <v>81</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>81</v>
@@ -12357,13 +12334,13 @@
         <v>81</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>81</v>
@@ -12372,7 +12349,7 @@
         <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>81</v>
@@ -12381,7 +12358,7 @@
         <v>81</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>81</v>
@@ -12389,17 +12366,15 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>88</v>
@@ -12471,13 +12446,13 @@
         <v>81</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>81</v>
@@ -12486,16 +12461,16 @@
         <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>81</v>
@@ -12503,17 +12478,15 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>88</v>
@@ -12531,12 +12504,14 @@
         <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>81</v>
@@ -12549,7 +12524,7 @@
         <v>81</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>81</v>
@@ -12585,13 +12560,13 @@
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>81</v>
@@ -12600,7 +12575,7 @@
         <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>81</v>
@@ -12609,7 +12584,7 @@
         <v>81</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>81</v>
@@ -12617,11 +12592,9 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
         <v>81</v>
       </c>
@@ -12642,16 +12615,18 @@
         <v>89</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>81</v>
       </c>
@@ -12663,7 +12638,7 @@
         <v>81</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>81</v>
@@ -12699,13 +12674,13 @@
         <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>81</v>
@@ -12714,7 +12689,7 @@
         <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>474</v>
+        <v>353</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>81</v>
@@ -12723,7 +12698,7 @@
         <v>81</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>81</v>
@@ -12731,11 +12706,9 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
         <v>81</v>
       </c>
@@ -12753,19 +12726,21 @@
         <v>81</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>81</v>
       </c>
@@ -12777,7 +12752,7 @@
         <v>81</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>81</v>
@@ -12789,13 +12764,13 @@
         <v>81</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>81</v>
+        <v>493</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>81</v>
+        <v>494</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>81</v>
@@ -12813,13 +12788,13 @@
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>81</v>
@@ -12828,16 +12803,16 @@
         <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>81</v>
+        <v>496</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>81</v>
@@ -12845,15 +12820,15 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>482</v>
+        <v>81</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>88</v>
@@ -12865,16 +12840,16 @@
         <v>81</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>483</v>
+        <v>215</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>484</v>
+        <v>216</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12889,7 +12864,7 @@
         <v>81</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>485</v>
+        <v>81</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>81</v>
@@ -12925,7 +12900,7 @@
         <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>486</v>
+        <v>217</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>79</v>
@@ -12937,10 +12912,10 @@
         <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>487</v>
+        <v>218</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>81</v>
@@ -12949,7 +12924,7 @@
         <v>81</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>488</v>
+        <v>81</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
@@ -12957,18 +12932,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>490</v>
+        <v>198</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>81</v>
@@ -12977,19 +12952,19 @@
         <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>491</v>
+        <v>220</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>492</v>
+        <v>221</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>493</v>
+        <v>201</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13003,7 +12978,7 @@
         <v>81</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>494</v>
+        <v>81</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>81</v>
@@ -13027,34 +13002,34 @@
         <v>81</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>495</v>
+        <v>223</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>496</v>
+        <v>218</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>81</v>
@@ -13063,7 +13038,7 @@
         <v>81</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>497</v>
+        <v>81</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
@@ -13071,11 +13046,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>499</v>
+        <v>81</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -13094,16 +13069,20 @@
         <v>89</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>90</v>
+        <v>501</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>81</v>
       </c>
@@ -13151,13 +13130,13 @@
         <v>81</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>81</v>
@@ -13166,7 +13145,7 @@
         <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>81</v>
@@ -13175,7 +13154,7 @@
         <v>81</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
@@ -13183,15 +13162,15 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>506</v>
+        <v>81</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>88</v>
@@ -13203,16 +13182,16 @@
         <v>81</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>507</v>
+        <v>215</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>508</v>
+        <v>216</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -13227,7 +13206,7 @@
         <v>81</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>509</v>
+        <v>81</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>81</v>
@@ -13263,7 +13242,7 @@
         <v>81</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>510</v>
+        <v>217</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>79</v>
@@ -13275,10 +13254,10 @@
         <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>511</v>
+        <v>218</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>81</v>
@@ -13287,7 +13266,7 @@
         <v>81</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
@@ -13295,18 +13274,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>81</v>
@@ -13315,19 +13294,19 @@
         <v>81</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>514</v>
+        <v>220</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>515</v>
+        <v>221</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>516</v>
+        <v>201</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13365,34 +13344,34 @@
         <v>81</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AC93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>517</v>
+        <v>223</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>518</v>
+        <v>218</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>81</v>
@@ -13401,7 +13380,7 @@
         <v>81</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>519</v>
+        <v>81</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>
@@ -13409,7 +13388,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13417,7 +13396,7 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>88</v>
@@ -13432,17 +13411,19 @@
         <v>89</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="N94" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>81</v>
@@ -13455,7 +13436,7 @@
         <v>81</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>81</v>
@@ -13491,7 +13472,7 @@
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
@@ -13506,7 +13487,7 @@
         <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>353</v>
+        <v>517</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>81</v>
@@ -13515,7 +13496,7 @@
         <v>81</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>81</v>
@@ -13523,7 +13504,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13543,21 +13524,21 @@
         <v>81</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>81</v>
       </c>
@@ -13581,13 +13562,13 @@
         <v>81</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>81</v>
@@ -13605,7 +13586,7 @@
         <v>81</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
@@ -13620,16 +13601,16 @@
         <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>534</v>
+        <v>81</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>81</v>
@@ -13637,7 +13618,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13645,7 +13626,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>88</v>
@@ -13657,19 +13638,21 @@
         <v>81</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>215</v>
+        <v>527</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>216</v>
+        <v>528</v>
       </c>
       <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>81</v>
       </c>
@@ -13717,7 +13700,7 @@
         <v>81</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>217</v>
+        <v>530</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>79</v>
@@ -13729,10 +13712,10 @@
         <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>218</v>
+        <v>531</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>81</v>
@@ -13741,7 +13724,7 @@
         <v>81</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>81</v>
@@ -13749,18 +13732,18 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>81</v>
@@ -13769,21 +13752,21 @@
         <v>81</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>220</v>
+        <v>534</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>81</v>
       </c>
@@ -13819,34 +13802,34 @@
         <v>81</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>223</v>
+        <v>537</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>218</v>
+        <v>538</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>81</v>
@@ -13855,7 +13838,7 @@
         <v>81</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>81</v>
+        <v>539</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>81</v>
@@ -13863,7 +13846,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13871,7 +13854,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>88</v>
@@ -13886,19 +13869,19 @@
         <v>89</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>539</v>
+        <v>283</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>81</v>
@@ -13947,13 +13930,13 @@
         <v>81</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>81</v>
@@ -13962,7 +13945,7 @@
         <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>81</v>
@@ -13971,7 +13954,7 @@
         <v>81</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>81</v>
@@ -13979,7 +13962,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13999,19 +13982,23 @@
         <v>81</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>215</v>
+        <v>549</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>81</v>
       </c>
@@ -14059,7 +14046,7 @@
         <v>81</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>217</v>
+        <v>553</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>79</v>
@@ -14071,10 +14058,10 @@
         <v>81</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>218</v>
+        <v>554</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>81</v>
@@ -14083,7 +14070,7 @@
         <v>81</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>81</v>
+        <v>555</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>81</v>
@@ -14091,18 +14078,18 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>81</v>
@@ -14114,18 +14101,20 @@
         <v>81</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>133</v>
+        <v>557</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>220</v>
+        <v>558</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>221</v>
+        <v>559</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>81</v>
       </c>
@@ -14161,43 +14150,43 @@
         <v>81</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>223</v>
+        <v>556</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK100" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AL100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>81</v>
+        <v>563</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>81</v>
@@ -14205,7 +14194,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14213,10 +14202,10 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>81</v>
@@ -14225,22 +14214,22 @@
         <v>81</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>102</v>
+        <v>565</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>81</v>
@@ -14289,13 +14278,13 @@
         <v>81</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>81</v>
@@ -14304,16 +14293,16 @@
         <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>81</v>
@@ -14321,7 +14310,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14332,7 +14321,7 @@
         <v>79</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>81</v>
@@ -14341,21 +14330,23 @@
         <v>81</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>90</v>
+        <v>573</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>81</v>
       </c>
@@ -14403,31 +14394,31 @@
         <v>81</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>100</v>
+        <v>578</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>563</v>
+        <v>81</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>81</v>
@@ -14435,7 +14426,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14443,7 +14434,7 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>88</v>
@@ -14455,21 +14446,19 @@
         <v>81</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>565</v>
+        <v>215</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>566</v>
+        <v>216</v>
       </c>
       <c r="M103" s="2"/>
-      <c r="N103" t="s" s="2">
-        <v>567</v>
-      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>81</v>
       </c>
@@ -14517,7 +14506,7 @@
         <v>81</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>568</v>
+        <v>217</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>79</v>
@@ -14529,10 +14518,10 @@
         <v>81</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>569</v>
+        <v>218</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>81</v>
@@ -14541,7 +14530,7 @@
         <v>81</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>570</v>
+        <v>81</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>81</v>
@@ -14549,18 +14538,18 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>81</v>
@@ -14569,21 +14558,21 @@
         <v>81</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>572</v>
+        <v>220</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>81</v>
       </c>
@@ -14631,22 +14620,22 @@
         <v>81</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>575</v>
+        <v>223</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>576</v>
+        <v>218</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>81</v>
@@ -14655,7 +14644,7 @@
         <v>81</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>577</v>
+        <v>81</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>81</v>
@@ -14663,42 +14652,42 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>81</v>
+        <v>583</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>581</v>
+        <v>201</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>582</v>
+        <v>202</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>81</v>
@@ -14747,22 +14736,22 @@
         <v>81</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>584</v>
+        <v>131</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>81</v>
@@ -14771,7 +14760,7 @@
         <v>81</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>585</v>
+        <v>81</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>81</v>
@@ -14779,7 +14768,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14790,7 +14779,7 @@
         <v>79</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>81</v>
@@ -14799,20 +14788,18 @@
         <v>81</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="M106" t="s" s="2">
         <v>589</v>
       </c>
+      <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
         <v>590</v>
       </c>
@@ -14839,13 +14826,13 @@
         <v>81</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>81</v>
+        <v>591</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>81</v>
+        <v>592</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>81</v>
@@ -14863,13 +14850,13 @@
         <v>81</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>81</v>
@@ -14878,16 +14865,16 @@
         <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>81</v>
@@ -14895,7 +14882,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14903,7 +14890,7 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>88</v>
@@ -14918,7 +14905,7 @@
         <v>81</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>595</v>
+        <v>292</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>596</v>
@@ -14926,11 +14913,9 @@
       <c r="L107" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="M107" s="2"/>
+      <c r="N107" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>81</v>
@@ -14979,7 +14964,7 @@
         <v>81</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>79</v>
@@ -14994,7 +14979,7 @@
         <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>600</v>
+        <v>297</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>218</v>
@@ -15003,7 +14988,7 @@
         <v>81</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>81</v>
@@ -15011,7 +14996,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15022,7 +15007,7 @@
         <v>79</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>81</v>
@@ -15034,20 +15019,16 @@
         <v>81</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>603</v>
+        <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>604</v>
+        <v>215</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>81</v>
       </c>
@@ -15095,31 +15076,31 @@
         <v>81</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>602</v>
+        <v>217</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>608</v>
+        <v>218</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>609</v>
+        <v>81</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>81</v>
@@ -15127,11 +15108,11 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -15150,20 +15131,18 @@
         <v>81</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>611</v>
+        <v>133</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>612</v>
+        <v>220</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>613</v>
+        <v>221</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>615</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>81</v>
       </c>
@@ -15199,19 +15178,19 @@
         <v>81</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AC109" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>610</v>
+        <v>223</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>79</v>
@@ -15223,13 +15202,13 @@
         <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>616</v>
+        <v>139</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>617</v>
+        <v>218</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>81</v>
@@ -15243,7 +15222,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15251,7 +15230,7 @@
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F110" t="s" s="2">
         <v>88</v>
@@ -15260,22 +15239,26 @@
         <v>81</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>81</v>
       </c>
@@ -15299,13 +15282,13 @@
         <v>81</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>81</v>
@@ -15323,7 +15306,7 @@
         <v>81</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>217</v>
+        <v>309</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>79</v>
@@ -15335,10 +15318,10 @@
         <v>81</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>218</v>
+        <v>310</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>81</v>
@@ -15347,7 +15330,7 @@
         <v>81</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>81</v>
@@ -15355,18 +15338,18 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>81</v>
@@ -15375,21 +15358,23 @@
         <v>81</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>81</v>
       </c>
@@ -15437,22 +15422,22 @@
         <v>81</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>223</v>
+        <v>317</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>81</v>
@@ -15461,7 +15446,7 @@
         <v>81</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>81</v>
@@ -15469,43 +15454,41 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>621</v>
+        <v>321</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>622</v>
+        <v>322</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>623</v>
+        <v>323</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>81</v>
       </c>
@@ -15553,22 +15536,22 @@
         <v>81</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>624</v>
+        <v>325</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>81</v>
@@ -15577,7 +15560,7 @@
         <v>81</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>81</v>
@@ -15585,11 +15568,11 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -15605,21 +15588,21 @@
         <v>81</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>626</v>
+        <v>330</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" t="s" s="2">
-        <v>628</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>81</v>
       </c>
@@ -15643,13 +15626,13 @@
         <v>81</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>629</v>
+        <v>81</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>630</v>
+        <v>81</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>81</v>
@@ -15667,7 +15650,7 @@
         <v>81</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>625</v>
+        <v>333</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>79</v>
@@ -15682,16 +15665,16 @@
         <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>631</v>
+        <v>334</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>632</v>
+        <v>335</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>81</v>
@@ -15699,7 +15682,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>633</v>
+        <v>606</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15707,10 +15690,10 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>81</v>
@@ -15719,21 +15702,19 @@
         <v>81</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>292</v>
+        <v>90</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>634</v>
+        <v>337</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>635</v>
+        <v>338</v>
       </c>
       <c r="M114" s="2"/>
-      <c r="N114" t="s" s="2">
-        <v>636</v>
-      </c>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>81</v>
       </c>
@@ -15781,13 +15762,13 @@
         <v>81</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>633</v>
+        <v>339</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>81</v>
@@ -15796,16 +15777,16 @@
         <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>637</v>
+        <v>341</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>81</v>
@@ -15813,7 +15794,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>638</v>
+        <v>607</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15824,7 +15805,7 @@
         <v>79</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>81</v>
@@ -15833,16 +15814,16 @@
         <v>81</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J115" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>216</v>
+        <v>344</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -15893,22 +15874,22 @@
         <v>81</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>217</v>
+        <v>345</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>218</v>
+        <v>346</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>81</v>
@@ -15917,7 +15898,7 @@
         <v>81</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>81</v>
@@ -15925,18 +15906,18 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>81</v>
@@ -15945,21 +15926,21 @@
         <v>81</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>133</v>
+        <v>263</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>220</v>
+        <v>349</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M116" s="2"/>
+      <c r="N116" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>81</v>
       </c>
@@ -15995,34 +15976,34 @@
         <v>81</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>223</v>
+        <v>352</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>218</v>
+        <v>353</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>81</v>
@@ -16031,7 +16012,7 @@
         <v>81</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>81</v>
@@ -16039,7 +16020,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16047,34 +16028,34 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>108</v>
+        <v>356</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>303</v>
+        <v>610</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>304</v>
+        <v>611</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>305</v>
+        <v>612</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>81</v>
@@ -16099,13 +16080,13 @@
         <v>81</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>307</v>
+        <v>81</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>81</v>
@@ -16123,13 +16104,13 @@
         <v>81</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>309</v>
+        <v>609</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>81</v>
@@ -16138,16 +16119,16 @@
         <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>311</v>
+        <v>613</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>81</v>
@@ -16155,7 +16136,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16163,7 +16144,7 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>88</v>
@@ -16175,23 +16156,19 @@
         <v>81</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J118" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>81</v>
       </c>
@@ -16239,7 +16216,7 @@
         <v>81</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>79</v>
@@ -16251,10 +16228,10 @@
         <v>81</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>81</v>
@@ -16263,7 +16240,7 @@
         <v>81</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>81</v>
@@ -16271,18 +16248,18 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>642</v>
+        <v>615</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>81</v>
@@ -16291,19 +16268,19 @@
         <v>81</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>322</v>
+        <v>220</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>323</v>
+        <v>221</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -16341,34 +16318,34 @@
         <v>81</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AC119" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>325</v>
+        <v>223</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>81</v>
@@ -16377,7 +16354,7 @@
         <v>81</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>81</v>
@@ -16385,18 +16362,18 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>81</v>
@@ -16408,17 +16385,15 @@
         <v>89</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>330</v>
+        <v>617</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>81</v>
@@ -16443,13 +16418,13 @@
         <v>81</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>81</v>
+        <v>619</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>81</v>
+        <v>620</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>81</v>
@@ -16467,22 +16442,22 @@
         <v>81</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>333</v>
+        <v>621</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>81</v>
+        <v>622</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>334</v>
+        <v>623</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>81</v>
@@ -16491,7 +16466,7 @@
         <v>81</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>335</v>
+        <v>624</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>81</v>
@@ -16499,7 +16474,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16507,10 +16482,10 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>81</v>
@@ -16525,13 +16500,17 @@
         <v>90</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>337</v>
+        <v>626</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="O121" t="s" s="2">
         <v>81</v>
       </c>
@@ -16579,13 +16558,13 @@
         <v>81</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>339</v>
+        <v>630</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>81</v>
@@ -16594,7 +16573,7 @@
         <v>100</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>340</v>
+        <v>631</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>81</v>
@@ -16603,7 +16582,7 @@
         <v>81</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>341</v>
+        <v>632</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>81</v>
@@ -16611,7 +16590,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16622,28 +16601,32 @@
         <v>79</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>343</v>
+        <v>634</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>81</v>
       </c>
@@ -16667,13 +16650,13 @@
         <v>81</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>81</v>
+        <v>638</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>81</v>
+        <v>639</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>81</v>
@@ -16691,13 +16674,13 @@
         <v>81</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>345</v>
+        <v>640</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>81</v>
@@ -16706,7 +16689,7 @@
         <v>100</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>81</v>
@@ -16715,7 +16698,7 @@
         <v>81</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>347</v>
+        <v>641</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>81</v>
@@ -16723,7 +16706,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16746,18 +16729,18 @@
         <v>89</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>263</v>
+        <v>643</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>349</v>
+        <v>644</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>81</v>
       </c>
@@ -16805,7 +16788,7 @@
         <v>81</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>352</v>
+        <v>647</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>79</v>
@@ -16820,7 +16803,7 @@
         <v>100</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>353</v>
+        <v>218</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>81</v>
@@ -16829,7 +16812,7 @@
         <v>81</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>354</v>
+        <v>218</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>81</v>
@@ -16837,7 +16820,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16848,7 +16831,7 @@
         <v>79</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>81</v>
@@ -16857,23 +16840,19 @@
         <v>81</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M124" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="N124" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>81</v>
       </c>
@@ -16921,13 +16900,13 @@
         <v>81</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>81</v>
@@ -16936,16 +16915,16 @@
         <v>100</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>651</v>
+        <v>131</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>81</v>
@@ -16976,16 +16955,18 @@
         <v>81</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>90</v>
+        <v>393</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>215</v>
+        <v>653</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>216</v>
+        <v>654</v>
       </c>
       <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
+      <c r="N125" t="s" s="2">
+        <v>655</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>81</v>
       </c>
@@ -17033,7 +17014,7 @@
         <v>81</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>217</v>
+        <v>652</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>79</v>
@@ -17045,19 +17026,19 @@
         <v>81</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AK125" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK125" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AL125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>81</v>
+        <v>656</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>81</v>
@@ -17065,18 +17046,18 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>81</v>
@@ -17088,18 +17069,18 @@
         <v>81</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>220</v>
+        <v>365</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N126" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="M126" s="2"/>
+      <c r="N126" t="s" s="2">
+        <v>659</v>
+      </c>
       <c r="O126" t="s" s="2">
         <v>81</v>
       </c>
@@ -17123,55 +17104,55 @@
         <v>81</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB126" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AC126" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD126" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>223</v>
+        <v>657</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ126" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AK126" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK126" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AL126" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>81</v>
+        <v>660</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>81</v>
@@ -17179,7 +17160,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17187,7 +17168,7 @@
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F127" t="s" s="2">
         <v>88</v>
@@ -17199,19 +17180,21 @@
         <v>81</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>367</v>
+        <v>662</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>368</v>
+        <v>663</v>
       </c>
       <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+      <c r="N127" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>81</v>
       </c>
@@ -17235,13 +17218,13 @@
         <v>81</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>81</v>
@@ -17259,7 +17242,7 @@
         <v>81</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>371</v>
+        <v>661</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>79</v>
@@ -17268,22 +17251,22 @@
         <v>88</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>372</v>
+        <v>665</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>373</v>
+        <v>666</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>374</v>
+        <v>667</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>81</v>
@@ -17291,7 +17274,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17299,7 +17282,7 @@
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F128" t="s" s="2">
         <v>88</v>
@@ -17311,23 +17294,19 @@
         <v>81</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>376</v>
+        <v>669</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>81</v>
       </c>
@@ -17375,7 +17354,7 @@
         <v>81</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>380</v>
+        <v>668</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>79</v>
@@ -17390,16 +17369,16 @@
         <v>100</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>381</v>
+        <v>671</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>382</v>
+        <v>81</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>81</v>
@@ -17407,7 +17386,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17418,31 +17397,31 @@
         <v>79</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>384</v>
+        <v>673</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>385</v>
+        <v>674</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>386</v>
+        <v>675</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>387</v>
+        <v>676</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>81</v>
@@ -17467,13 +17446,13 @@
         <v>81</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>81</v>
@@ -17491,13 +17470,13 @@
         <v>81</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>390</v>
+        <v>672</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>81</v>
@@ -17506,16 +17485,16 @@
         <v>100</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>310</v>
+        <v>677</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>81</v>
+        <v>678</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>81</v>
@@ -17523,7 +17502,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17543,20 +17522,18 @@
         <v>81</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>393</v>
+        <v>90</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>394</v>
+        <v>215</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>81</v>
@@ -17605,7 +17582,7 @@
         <v>81</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>397</v>
+        <v>217</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>79</v>
@@ -17617,7 +17594,7 @@
         <v>81</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>218</v>
@@ -17629,7 +17606,7 @@
         <v>81</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>81</v>
@@ -17637,18 +17614,18 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>81</v>
@@ -17657,18 +17634,20 @@
         <v>81</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>399</v>
+        <v>220</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M131" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>81</v>
@@ -17717,22 +17696,22 @@
         <v>81</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>401</v>
+        <v>223</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>353</v>
+        <v>218</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>81</v>
@@ -17741,7 +17720,7 @@
         <v>81</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>81</v>
@@ -17749,40 +17728,42 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>81</v>
+        <v>583</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>431</v>
+        <v>133</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>660</v>
+        <v>584</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="M132" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="N132" t="s" s="2">
-        <v>662</v>
+        <v>202</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>81</v>
@@ -17831,31 +17812,31 @@
         <v>81</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>659</v>
+        <v>586</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>437</v>
+        <v>131</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>663</v>
+        <v>81</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>81</v>
@@ -17863,7 +17844,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17871,7 +17852,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>88</v>
@@ -17886,17 +17867,19 @@
         <v>81</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>403</v>
+        <v>683</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="M133" s="2"/>
+        <v>684</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>685</v>
+      </c>
       <c r="N133" t="s" s="2">
-        <v>666</v>
+        <v>686</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>81</v>
@@ -17921,13 +17904,13 @@
         <v>81</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>407</v>
+        <v>113</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>408</v>
+        <v>114</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>81</v>
@@ -17945,10 +17928,10 @@
         <v>81</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>88</v>
@@ -17960,16 +17943,16 @@
         <v>100</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>409</v>
+        <v>687</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>218</v>
+        <v>688</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>81</v>
@@ -17977,7 +17960,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18000,17 +17983,19 @@
         <v>81</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>669</v>
+        <v>691</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="M134" s="2"/>
+        <v>692</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>693</v>
+      </c>
       <c r="N134" t="s" s="2">
-        <v>671</v>
+        <v>694</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>81</v>
@@ -18059,7 +18044,7 @@
         <v>81</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>79</v>
@@ -18068,22 +18053,22 @@
         <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>672</v>
+        <v>81</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>218</v>
+        <v>696</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>81</v>
@@ -18091,18 +18076,18 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>81</v>
+        <v>699</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>81</v>
@@ -18114,15 +18099,17 @@
         <v>81</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>263</v>
+        <v>700</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>676</v>
+        <v>701</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="M135" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>703</v>
+      </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>81</v>
@@ -18171,13 +18158,13 @@
         <v>81</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>81</v>
@@ -18186,7 +18173,7 @@
         <v>100</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>678</v>
+        <v>704</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>218</v>
@@ -18195,7 +18182,7 @@
         <v>81</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>81</v>
+        <v>705</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>81</v>
@@ -18203,7 +18190,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18214,7 +18201,7 @@
         <v>79</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>81</v>
@@ -18226,20 +18213,16 @@
         <v>81</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>611</v>
+        <v>90</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>680</v>
+        <v>215</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>683</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>81</v>
       </c>
@@ -18287,25 +18270,25 @@
         <v>81</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>679</v>
+        <v>217</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>684</v>
+        <v>218</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>685</v>
+        <v>81</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>81</v>
@@ -18319,18 +18302,18 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>686</v>
+        <v>707</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>81</v>
@@ -18342,15 +18325,17 @@
         <v>81</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M137" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>81</v>
@@ -18387,31 +18372,31 @@
         <v>81</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AC137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>218</v>
@@ -18431,18 +18416,18 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>687</v>
+        <v>708</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>81</v>
@@ -18451,19 +18436,19 @@
         <v>81</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>220</v>
+        <v>709</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>221</v>
+        <v>710</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>201</v>
+        <v>711</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -18513,22 +18498,22 @@
         <v>81</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>223</v>
+        <v>712</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>81</v>
+        <v>713</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>81</v>
@@ -18545,43 +18530,41 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>621</v>
+        <v>81</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>622</v>
+        <v>715</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>623</v>
+        <v>716</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>81</v>
       </c>
@@ -18605,13 +18588,13 @@
         <v>81</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>81</v>
+        <v>718</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>81</v>
+        <v>719</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>81</v>
@@ -18629,19 +18612,19 @@
         <v>81</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>624</v>
+        <v>720</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>131</v>
@@ -18661,7 +18644,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18669,7 +18652,7 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F140" t="s" s="2">
         <v>88</v>
@@ -18681,23 +18664,21 @@
         <v>81</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>690</v>
+        <v>722</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>691</v>
+        <v>723</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>693</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>81</v>
       </c>
@@ -18721,13 +18702,13 @@
         <v>81</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>81</v>
@@ -18745,10 +18726,10 @@
         <v>81</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>689</v>
+        <v>725</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>88</v>
@@ -18760,16 +18741,16 @@
         <v>100</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>694</v>
+        <v>726</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>695</v>
+        <v>81</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>696</v>
+        <v>81</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>81</v>
@@ -18777,7 +18758,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18797,23 +18778,21 @@
         <v>81</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>283</v>
+        <v>90</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>699</v>
+        <v>729</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>701</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>81</v>
       </c>
@@ -18861,7 +18840,7 @@
         <v>81</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>697</v>
+        <v>731</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>79</v>
@@ -18876,16 +18855,16 @@
         <v>100</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>702</v>
+        <v>131</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>703</v>
+        <v>81</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>704</v>
+        <v>81</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>81</v>
@@ -18893,18 +18872,18 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>706</v>
+        <v>81</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>81</v>
@@ -18913,21 +18892,23 @@
         <v>81</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>707</v>
+        <v>270</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>708</v>
+        <v>733</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>709</v>
+        <v>734</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="N142" s="2"/>
+        <v>735</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>736</v>
+      </c>
       <c r="O142" t="s" s="2">
         <v>81</v>
       </c>
@@ -18975,13 +18956,13 @@
         <v>81</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>81</v>
@@ -18990,16 +18971,16 @@
         <v>100</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>711</v>
+        <v>666</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>218</v>
+        <v>737</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>712</v>
+        <v>81</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>81</v>
@@ -19007,7 +18988,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19119,7 +19100,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19233,7 +19214,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19259,13 +19240,13 @@
         <v>90</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
@@ -19315,7 +19296,7 @@
         <v>81</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>79</v>
@@ -19324,7 +19305,7 @@
         <v>88</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>100</v>
@@ -19347,7 +19328,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19373,13 +19354,13 @@
         <v>102</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -19408,10 +19389,10 @@
         <v>240</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>81</v>
@@ -19429,7 +19410,7 @@
         <v>81</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>79</v>
@@ -19461,7 +19442,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19487,13 +19468,13 @@
         <v>205</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
@@ -19543,7 +19524,7 @@
         <v>81</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>79</v>
@@ -19558,7 +19539,7 @@
         <v>100</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>81</v>
@@ -19575,7 +19556,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19601,13 +19582,13 @@
         <v>90</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -19657,7 +19638,7 @@
         <v>81</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>79</v>
@@ -19689,7 +19670,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19700,31 +19681,31 @@
         <v>79</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>270</v>
+        <v>573</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>81</v>
@@ -19773,13 +19754,13 @@
         <v>81</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>81</v>
@@ -19788,10 +19769,10 @@
         <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>673</v>
+        <v>749</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>744</v>
+        <v>218</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>81</v>
@@ -19805,7 +19786,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19917,7 +19898,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19987,16 +19968,16 @@
         <v>81</v>
       </c>
       <c r="AA151" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB151" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AC151" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD151" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE151" t="s" s="2">
         <v>223</v>
@@ -20031,41 +20012,43 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>81</v>
+        <v>583</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>716</v>
+        <v>584</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>717</v>
+        <v>585</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="N152" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O152" t="s" s="2">
         <v>81</v>
       </c>
@@ -20113,19 +20096,19 @@
         <v>81</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>719</v>
+        <v>586</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>720</v>
+        <v>81</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>131</v>
@@ -20145,7 +20128,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20168,16 +20151,16 @@
         <v>89</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>102</v>
+        <v>754</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>722</v>
+        <v>755</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>724</v>
+        <v>757</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
@@ -20203,13 +20186,13 @@
         <v>81</v>
       </c>
       <c r="W153" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>725</v>
+        <v>81</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>726</v>
+        <v>81</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>81</v>
@@ -20227,10 +20210,10 @@
         <v>81</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>88</v>
@@ -20242,16 +20225,16 @@
         <v>100</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>81</v>
+        <v>758</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>81</v>
@@ -20259,7 +20242,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20267,7 +20250,7 @@
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F154" t="s" s="2">
         <v>88</v>
@@ -20282,17 +20265,15 @@
         <v>89</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>729</v>
+        <v>760</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>731</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
         <v>81</v>
@@ -20317,13 +20298,13 @@
         <v>81</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>81</v>
+        <v>761</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>81</v>
+        <v>762</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>81</v>
@@ -20341,10 +20322,10 @@
         <v>81</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>732</v>
+        <v>759</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>88</v>
@@ -20356,10 +20337,10 @@
         <v>100</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>81</v>
@@ -20368,809 +20349,11 @@
         <v>81</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="155" hidden="true">
-      <c r="A155" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="B155" s="2"/>
-      <c r="C155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F155" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="N155" s="2"/>
-      <c r="O155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P155" s="2"/>
-      <c r="Q155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN155" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="156" hidden="true">
-      <c r="A156" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P156" s="2"/>
-      <c r="Q156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN156" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="157" hidden="true">
-      <c r="A157" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="B157" s="2"/>
-      <c r="C157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F157" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J157" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P157" s="2"/>
-      <c r="Q157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AK157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN157" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="158" hidden="true">
-      <c r="A158" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="B158" s="2"/>
-      <c r="C158" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N158" s="2"/>
-      <c r="O158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P158" s="2"/>
-      <c r="Q158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN158" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="159" hidden="true">
-      <c r="A159" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="B159" s="2"/>
-      <c r="C159" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P159" s="2"/>
-      <c r="Q159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="160" hidden="true">
-      <c r="A160" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="F160" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="N160" s="2"/>
-      <c r="O160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P160" s="2"/>
-      <c r="Q160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AL160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="AN160" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="161" hidden="true">
-      <c r="A161" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
-      <c r="O161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P161" s="2"/>
-      <c r="Q161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="AK161" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN161" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN161">
+  <autoFilter ref="A1:AN154">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21180,7 +20363,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI160">
+  <conditionalFormatting sqref="A2:AI153">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
